--- a/Herramientas teleinformaticas/Tabla actores.xlsx
+++ b/Herramientas teleinformaticas/Tabla actores.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\Herramientas teleinformaticas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\UNAD\Herramientas teleinformaticas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>NUMERO DEL GRUPO</t>
   </si>
@@ -83,13 +83,16 @@
     <t>GIOVANNI RUBIO</t>
   </si>
   <si>
-    <t>NO HA COMPARTIDO LA INFORMACIÓN</t>
-  </si>
-  <si>
     <t>MAURICIO RODRIGUEZ</t>
   </si>
   <si>
     <t>TUTOR</t>
+  </si>
+  <si>
+    <t>Giovannyrubio20@yahoo.es</t>
+  </si>
+  <si>
+    <t>Giovanni.rubioruiz</t>
   </si>
 </sst>
 </file>
@@ -170,21 +173,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -503,159 +507,167 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>3057815663</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" s="5" t="str">
         <f>B3</f>
         <v>ESTUDIANTE</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="5" t="str">
         <f>E4</f>
         <v>brian.cl@yahoo.com</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>3132243515</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="F4" s="3" t="str">
         <f>F3</f>
         <v>Jose Acevedo y gomez</v>
       </c>
-      <c r="G4" t="str">
+      <c r="G4" s="5" t="str">
         <f>G3</f>
         <v>BOGOTÁ</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E5" s="5" t="str">
         <f>C5</f>
         <v>alejandrov952@hotmail.com</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="3" t="str">
         <f>F4</f>
         <v>Jose Acevedo y gomez</v>
       </c>
-      <c r="G5" t="str">
+      <c r="G5" s="5" t="str">
         <f>G4</f>
         <v>BOGOTÁ</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>19</v>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3142289657</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f>F5</f>
+        <v>Jose Acevedo y gomez</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f>G5</f>
+        <v>BOGOTÁ</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Herramientas teleinformaticas/Tabla actores.xlsx
+++ b/Herramientas teleinformaticas/Tabla actores.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>NUMERO DEL GRUPO</t>
   </si>
@@ -93,22 +93,41 @@
   </si>
   <si>
     <t>Giovanni.rubioruiz</t>
+  </si>
+  <si>
+    <t>Medellín</t>
+  </si>
+  <si>
+    <t>315 400 27 51</t>
+  </si>
+  <si>
+    <t>mauro.rodriguez.ramirez@gmail.com</t>
+  </si>
+  <si>
+    <t>mauricio.rodriguez.ramirez</t>
+  </si>
+  <si>
+    <t>LEONARDO ANDRES AMAYA</t>
+  </si>
+  <si>
+    <t>leonardo.amaya88@hotmail.com</t>
+  </si>
+  <si>
+    <t>312 541 2519</t>
+  </si>
+  <si>
+    <t>leonartes8806</t>
+  </si>
+  <si>
+    <t>MEDELLÍN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -124,17 +143,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,24 +202,37 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -504,35 +548,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -555,119 +599,154 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>3057815663</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="4" t="str">
         <f>B3</f>
         <v>ESTUDIANTE</v>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="C4" s="4" t="str">
         <f>E4</f>
         <v>brian.cl@yahoo.com</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>3132243515</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="str">
-        <f>F3</f>
+      <c r="F4" s="2" t="str">
+        <f t="shared" ref="F4:G6" si="0">F3</f>
         <v>Jose Acevedo y gomez</v>
       </c>
-      <c r="G4" s="5" t="str">
-        <f>G3</f>
+      <c r="G4" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>BOGOTÁ</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="5" t="str">
+      <c r="E5" s="4" t="str">
         <f>C5</f>
         <v>alejandrov952@hotmail.com</v>
       </c>
-      <c r="F5" s="3" t="str">
-        <f>F4</f>
+      <c r="F5" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Jose Acevedo y gomez</v>
       </c>
-      <c r="G5" s="5" t="str">
-        <f>G4</f>
+      <c r="G5" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>BOGOTÁ</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>3142289657</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="3" t="str">
-        <f>F5</f>
+      <c r="F6" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Jose Acevedo y gomez</v>
       </c>
-      <c r="G6" s="3" t="str">
-        <f>G5</f>
+      <c r="G6" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>BOGOTÁ</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="4" t="str">
+        <f>+F5</f>
+        <v>Jose Acevedo y gomez</v>
+      </c>
+      <c r="G8" s="8" t="str">
+        <f>+G5</f>
+        <v>BOGOTÁ</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
